--- a/data/trans_dic/P57_AC_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.838964346653978</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7547524816933524</v>
+        <v>0.7547524816933525</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6753070204725767</v>
@@ -685,7 +685,7 @@
         <v>0.838347548404516</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7472790397022255</v>
+        <v>0.7472790397022254</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6919425370628153</v>
@@ -697,7 +697,7 @@
         <v>0.8386395074208156</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7506083793019166</v>
+        <v>0.7506083793019168</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.677423484583859</v>
+        <v>0.6796479272645016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.645369767397617</v>
+        <v>0.6443126369589006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8137928589163808</v>
+        <v>0.8150227608189958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7132609551459503</v>
+        <v>0.7002720088523549</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6435731625463152</v>
+        <v>0.6448876779621016</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7068050173652038</v>
+        <v>0.7029420490348371</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8164753536324195</v>
+        <v>0.8163049014414552</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7155524884195953</v>
+        <v>0.7150967808250973</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6680087994504595</v>
+        <v>0.6703828787198556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6866079645518375</v>
+        <v>0.6849956148967549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8203191713553041</v>
+        <v>0.8222411124065004</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7216698986933603</v>
+        <v>0.7229295080102761</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7535033558247609</v>
+        <v>0.7527795346464888</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7056162812392933</v>
+        <v>0.7045685161706732</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8626051946129578</v>
+        <v>0.8603639373988481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8023899965097747</v>
+        <v>0.793882377784198</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7049205021369952</v>
+        <v>0.7069367728395899</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7615376075202587</v>
+        <v>0.7600080899807294</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8592357462217346</v>
+        <v>0.8577849297122822</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.779975480314884</v>
+        <v>0.7797512577798653</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7161256820538102</v>
+        <v>0.7150461005556523</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.727158894687448</v>
+        <v>0.7241608793541661</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8529348151956144</v>
+        <v>0.853355118786725</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7788373202547014</v>
+        <v>0.7774119770702683</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.840195570168051</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.715549065849742</v>
+        <v>0.7155490658497421</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6948452929857835</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6380443222148573</v>
+        <v>0.6378477764742203</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6328313465590573</v>
+        <v>0.6327593627258045</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7748788975926919</v>
+        <v>0.7748334440302539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.684034263388006</v>
+        <v>0.684258442208968</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6918106993720744</v>
+        <v>0.6912816833252853</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7353461314544036</v>
+        <v>0.734375430484095</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8146578730573999</v>
+        <v>0.8132171971314905</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.692252626707346</v>
+        <v>0.6929108041227311</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6754840311988551</v>
+        <v>0.6763854423604224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.695791793094976</v>
+        <v>0.6968523525001663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8035917202411622</v>
+        <v>0.8022123017651388</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6969660939128504</v>
+        <v>0.6975065632728913</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6971341097395358</v>
+        <v>0.6985158170012549</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6936857978468426</v>
+        <v>0.6961440922223691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8263498377312495</v>
+        <v>0.8275130497063421</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7535250443945095</v>
+        <v>0.7500007081176068</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7468598146999723</v>
+        <v>0.7457035353723188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7903784004211443</v>
+        <v>0.7877934027755092</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8619115327143712</v>
+        <v>0.8610329369176475</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7407747443637541</v>
+        <v>0.7392290118050983</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7153358328814541</v>
+        <v>0.7158428917096226</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7359176350520045</v>
+        <v>0.7381556790267544</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8397965274082485</v>
+        <v>0.8380731535024117</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7376557393241252</v>
+        <v>0.7360216466732962</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.8050954190469056</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5864858580788895</v>
+        <v>0.5864858580788894</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.6956721794873051</v>
@@ -969,7 +969,7 @@
         <v>0.7952998643833339</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5853483049569935</v>
+        <v>0.5853483049569936</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.631417242014211</v>
+        <v>0.6306370108660445</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6564060467518074</v>
+        <v>0.656792919442946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7567513588634187</v>
+        <v>0.7590765193877378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5495215033952933</v>
+        <v>0.5499858750034221</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7027844673951453</v>
+        <v>0.7029059374648188</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7282419333398665</v>
+        <v>0.7268570738967699</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7716821886324086</v>
+        <v>0.7769391186477279</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5578627628479587</v>
+        <v>0.5582416449271499</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6756691832560964</v>
+        <v>0.6759409446154907</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7014867961133029</v>
+        <v>0.699272937230674</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7747468182903136</v>
+        <v>0.7740085278637199</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5608542475301054</v>
+        <v>0.5632329611571646</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6864959624405448</v>
+        <v>0.6884466254709835</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7214361518605505</v>
+        <v>0.7203951204899457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8169817007286363</v>
+        <v>0.8135532519888153</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6178716422335304</v>
+        <v>0.6178301022935616</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7591848963997349</v>
+        <v>0.7606687184757478</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7852971383450928</v>
+        <v>0.7840151161674629</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8298510734711891</v>
+        <v>0.8327346999536772</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6103160698041344</v>
+        <v>0.6127302218032451</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7142344743261327</v>
+        <v>0.7140371884424543</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7455353484190725</v>
+        <v>0.7446613787949006</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8148772284176948</v>
+        <v>0.8155834812639962</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6061308405604713</v>
+        <v>0.6073201915940775</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6563047884245046</v>
+        <v>0.6554661482372651</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5437953392057073</v>
+        <v>0.5470970045971564</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6242147939689853</v>
+        <v>0.6230930925495312</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4838037604927723</v>
+        <v>0.4840256179766324</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6129340966582525</v>
+        <v>0.6102665121494653</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5527003230463061</v>
+        <v>0.5524519976944053</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7159784359076525</v>
+        <v>0.7147301959519828</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5051133403728363</v>
+        <v>0.5044361136694239</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6526038429527414</v>
+        <v>0.6545279210076785</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5644462228654223</v>
+        <v>0.5665195004755706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6821595265826519</v>
+        <v>0.683445326897821</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5034375573682115</v>
+        <v>0.5039073157539056</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7417126776477746</v>
+        <v>0.7445913607068666</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6371757382266063</v>
+        <v>0.6377609029853401</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7089986252586905</v>
+        <v>0.7100503453748637</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5563078134044699</v>
+        <v>0.5570839129805025</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7087018043654074</v>
+        <v>0.7133407991247456</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6449761616694819</v>
+        <v>0.6463559913338497</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7958842876816105</v>
+        <v>0.7932818651100912</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5670487652938495</v>
+        <v>0.5633208371082796</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7165980032302126</v>
+        <v>0.7165437174846269</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6307669228682031</v>
+        <v>0.6305525560035625</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7427461371745403</v>
+        <v>0.7408048727838644</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5494307109396185</v>
+        <v>0.5517007536682518</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6633180917388549</v>
+        <v>0.6635332085366701</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6483305347552456</v>
+        <v>0.6461520235077017</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7759085795825456</v>
+        <v>0.7768849083565005</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6087241354803385</v>
+        <v>0.609602872667244</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.689773438806092</v>
+        <v>0.6915838052164531</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7182374700223529</v>
+        <v>0.7160514067498809</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8065704255931161</v>
+        <v>0.8063830880898262</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6267967704549268</v>
+        <v>0.6258860197394873</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6815158818543983</v>
+        <v>0.6823803458405897</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6854136565457514</v>
+        <v>0.6874169291791344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7958203393151537</v>
+        <v>0.7959623499547178</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6228453760538808</v>
+        <v>0.622661496259903</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6966672743974121</v>
+        <v>0.6955861936188681</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6823513826615469</v>
+        <v>0.6786278203431371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.803861449168951</v>
+        <v>0.8049585916177346</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6461076354632806</v>
+        <v>0.6477191108018678</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7217271156300076</v>
+        <v>0.7226823145998975</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7475660220985632</v>
+        <v>0.7476122889244969</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8333729973891156</v>
+        <v>0.8326540764945606</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6549629842668895</v>
+        <v>0.6548066923475558</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7031782946838313</v>
+        <v>0.704617266380801</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7095441291914429</v>
+        <v>0.7101969971404586</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8142952054199096</v>
+        <v>0.8157053939782699</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6468290055557357</v>
+        <v>0.6463527051792979</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>395711</v>
+        <v>397010</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>666267</v>
+        <v>665175</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>914495</v>
+        <v>915877</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>352818</v>
+        <v>346393</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>592217</v>
+        <v>593427</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>787979</v>
+        <v>783673</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1020839</v>
+        <v>1020626</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>440571</v>
+        <v>440291</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1004915</v>
+        <v>1008486</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1474303</v>
+        <v>1470841</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1947474</v>
+        <v>1952037</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>801316</v>
+        <v>802714</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>440152</v>
+        <v>439729</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>728464</v>
+        <v>727382</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>969347</v>
+        <v>966829</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>396906</v>
+        <v>392698</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>648669</v>
+        <v>650525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>848998</v>
+        <v>847293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1074302</v>
+        <v>1072488</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>480237</v>
+        <v>480099</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1077299</v>
+        <v>1075675</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1561375</v>
+        <v>1554938</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>2024905</v>
+        <v>2025903</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>864792</v>
+        <v>863209</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>687052</v>
+        <v>686840</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>614858</v>
+        <v>614788</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>701538</v>
+        <v>701497</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>651097</v>
+        <v>651311</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>731616</v>
+        <v>731057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>801468</v>
+        <v>800410</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>812101</v>
+        <v>810665</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>764493</v>
+        <v>765220</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1441717</v>
+        <v>1443641</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1434387</v>
+        <v>1436574</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1528603</v>
+        <v>1525979</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1433105</v>
+        <v>1434216</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>750680</v>
+        <v>752168</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>673984</v>
+        <v>676372</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>748137</v>
+        <v>749191</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>717242</v>
+        <v>713887</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>789833</v>
+        <v>788610</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>861449</v>
+        <v>858632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>859206</v>
+        <v>858330</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>818079</v>
+        <v>816372</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1526775</v>
+        <v>1527857</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1517107</v>
+        <v>1521721</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1597472</v>
+        <v>1594194</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1516771</v>
+        <v>1513411</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>708194</v>
+        <v>707319</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>578936</v>
+        <v>579278</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>617043</v>
+        <v>618939</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>571581</v>
+        <v>572064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>698526</v>
+        <v>698646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>634149</v>
+        <v>632944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>594270</v>
+        <v>598318</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>577372</v>
+        <v>577764</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1429401</v>
+        <v>1429976</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1229547</v>
+        <v>1225667</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1228346</v>
+        <v>1227176</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1163837</v>
+        <v>1168773</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>769970</v>
+        <v>772158</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>636292</v>
+        <v>635373</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>666154</v>
+        <v>663358</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>642675</v>
+        <v>642632</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>754584</v>
+        <v>756059</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>683833</v>
+        <v>682716</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>639066</v>
+        <v>641286</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>631660</v>
+        <v>634159</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1510987</v>
+        <v>1510570</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1306754</v>
+        <v>1305222</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1291972</v>
+        <v>1293092</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1257791</v>
+        <v>1260259</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>292482</v>
+        <v>292108</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>269400</v>
+        <v>271036</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>315478</v>
+        <v>314911</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>465019</v>
+        <v>465232</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>209107</v>
+        <v>208197</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>247103</v>
+        <v>246992</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>348448</v>
+        <v>347841</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>450954</v>
+        <v>450349</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>513474</v>
+        <v>514988</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>531985</v>
+        <v>533940</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>676752</v>
+        <v>678028</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>933349</v>
+        <v>934220</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>330544</v>
+        <v>331827</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>315661</v>
+        <v>315951</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>358327</v>
+        <v>358859</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>534708</v>
+        <v>535454</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>241779</v>
+        <v>243362</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>288358</v>
+        <v>288975</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>387336</v>
+        <v>386070</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>506249</v>
+        <v>502920</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>563825</v>
+        <v>563782</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>594492</v>
+        <v>594290</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>736858</v>
+        <v>734933</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1018618</v>
+        <v>1022827</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2141320</v>
+        <v>2142015</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2192242</v>
+        <v>2184875</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2599201</v>
+        <v>2602471</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2098772</v>
+        <v>2101802</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2285108</v>
+        <v>2291105</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2530096</v>
+        <v>2522395</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2826167</v>
+        <v>2825511</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2286438</v>
+        <v>2283116</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4457817</v>
+        <v>4463472</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4732102</v>
+        <v>4745933</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5454402</v>
+        <v>5455376</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4419483</v>
+        <v>4418179</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2248978</v>
+        <v>2245488</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2307278</v>
+        <v>2294688</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2692839</v>
+        <v>2696515</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2227663</v>
+        <v>2233220</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2390965</v>
+        <v>2394129</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2633410</v>
+        <v>2633573</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2920081</v>
+        <v>2917562</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2389183</v>
+        <v>2388613</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4599512</v>
+        <v>4608924</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4898699</v>
+        <v>4903206</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5581025</v>
+        <v>5590691</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4589663</v>
+        <v>4586283</v>
       </c>
     </row>
     <row r="24">
